--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralAndLargeTaxcodeMonthly.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="204" windowWidth="14340" windowHeight="4332" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -211,19 +216,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Updated Income tax calculation script creation scenarios.xlsx</t>
-  </si>
-  <si>
     <t>Payroll Suite GeneralAndLargeTaxcodeMonthly.xlsx</t>
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,6 +347,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -389,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,9 +430,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,6 +482,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,15 +681,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -675,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -689,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -703,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -731,16 +773,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -766,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -786,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -806,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -826,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -846,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -866,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -886,7 +928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -906,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -926,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -946,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -966,7 +1008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -986,7 +1028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1006,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -1046,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1066,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -1086,7 +1128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1116,22 +1158,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H16" activeCellId="2" sqref="H19 H16 H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="46.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1172,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
@@ -1180,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>28</v>
@@ -1189,13 +1231,13 @@
         <v>59</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>61</v>
@@ -1207,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
@@ -1215,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
@@ -1224,13 +1266,13 @@
         <v>59</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>64</v>
+      <c r="H3" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>61</v>
@@ -1244,7 +1286,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>58</v>
       </c>
@@ -1252,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>28</v>
@@ -1261,13 +1303,13 @@
         <v>59</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>64</v>
+      <c r="H4" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>61</v>
@@ -1281,7 +1323,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>58</v>
       </c>
@@ -1289,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>28</v>
@@ -1298,13 +1340,13 @@
         <v>59</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>64</v>
+      <c r="H5" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>61</v>
@@ -1318,7 +1360,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>58</v>
       </c>
@@ -1326,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>28</v>
@@ -1335,13 +1377,13 @@
         <v>59</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>64</v>
+      <c r="H6" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>61</v>
@@ -1355,7 +1397,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>58</v>
       </c>
@@ -1363,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>28</v>
@@ -1372,13 +1414,13 @@
         <v>59</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>64</v>
+      <c r="H7" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>61</v>
@@ -1392,7 +1434,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
@@ -1400,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>28</v>
@@ -1409,13 +1451,13 @@
         <v>59</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>64</v>
+      <c r="H8" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>61</v>
@@ -1429,7 +1471,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
@@ -1437,7 +1479,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>28</v>
@@ -1446,13 +1488,13 @@
         <v>59</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>64</v>
+      <c r="H9" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>61</v>
@@ -1466,7 +1508,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>58</v>
       </c>
@@ -1474,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>28</v>
@@ -1483,13 +1525,13 @@
         <v>59</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>64</v>
+      <c r="H10" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>61</v>
@@ -1503,7 +1545,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
@@ -1511,7 +1553,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>28</v>
@@ -1520,13 +1562,13 @@
         <v>59</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>64</v>
+      <c r="H11" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>61</v>
@@ -1540,7 +1582,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -1548,7 +1590,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>28</v>
@@ -1557,13 +1599,13 @@
         <v>59</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>64</v>
+      <c r="H12" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>61</v>
@@ -1577,7 +1619,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>58</v>
       </c>
@@ -1585,7 +1627,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>28</v>
@@ -1594,13 +1636,13 @@
         <v>59</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>64</v>
+      <c r="H13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>61</v>
@@ -1614,7 +1656,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>58</v>
       </c>
@@ -1622,7 +1664,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>28</v>
@@ -1631,13 +1673,13 @@
         <v>59</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>64</v>
+      <c r="H14" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>61</v>
@@ -1651,7 +1693,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>58</v>
       </c>
@@ -1659,7 +1701,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>28</v>
@@ -1668,13 +1710,13 @@
         <v>59</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>64</v>
+      <c r="H15" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>61</v>
@@ -1688,7 +1730,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
@@ -1696,7 +1738,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>28</v>
@@ -1705,13 +1747,13 @@
         <v>59</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>64</v>
+      <c r="H16" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>61</v>
@@ -1725,7 +1767,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
@@ -1733,7 +1775,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>28</v>
@@ -1742,13 +1784,13 @@
         <v>59</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>64</v>
+      <c r="H17" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>61</v>
@@ -1762,7 +1804,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>58</v>
       </c>
@@ -1770,7 +1812,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>28</v>
@@ -1779,13 +1821,13 @@
         <v>59</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>64</v>
+      <c r="H18" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>61</v>
@@ -1809,22 +1851,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1865,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
@@ -1873,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>28</v>
@@ -1882,13 +1924,13 @@
         <v>59</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>63</v>
